--- a/非受控文档/任务分配/11-28任务.xlsx
+++ b/非受控文档/任务分配/11-28任务.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sprou\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sprou\Desktop\任务检查\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C11FA06-547B-4B25-AA88-50510F9403DB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E3FB46-2A3A-4624-BCEC-93FF8D046C2C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12750" xr2:uid="{380DED2C-1F1A-42B0-9C52-CE2ABC141AA0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="59">
   <si>
     <t>所属</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,52 +99,160 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2018-11-30 20:00（周五）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找学生用户代表1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找学生用户代表2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找学生用户代表3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-02 20:00（周日）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-09 20:00（周日）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例管理、实例管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <t>项目管理</t>
+  </si>
+  <si>
+    <t>案例查看、实例操作、个人空间管理、及时交流</t>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书本阅读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈铉文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读《软件需求》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-11-30 20:00（周五）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻找学生用户代表1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻找学生用户代表2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻找学生用户代表3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-12-02 20:00（周日）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-12-09 20:00（周日）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>案例管理、实例管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统管理</t>
-  </si>
-  <si>
-    <t>用户管理</t>
-  </si>
-  <si>
-    <t>项目管理</t>
-  </si>
-  <si>
-    <t>案例查看、实例操作、个人空间管理、及时交流</t>
+    <t>2018-12-02 12:00（周日）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用例图编写用例场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向教师用户代表确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愿景与范文文档初稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读《软件需求》5-10章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读《软件需求》5-11章</t>
+  </si>
+  <si>
+    <t>阅读《软件需求》5-12章</t>
+  </si>
+  <si>
+    <t>阅读《软件需求》5-13章</t>
+  </si>
+  <si>
+    <t>阅读《软件需求》5-14章</t>
+  </si>
+  <si>
+    <t>用户分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用户类别写出用户画像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找学生用户代表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找学生用户代表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与教师用户代表取得联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-03 20:00（周一）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得杨枨老师同意作为教师用户代表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干系人手册维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -197,15 +305,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,198 +638,630 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FC9939-3BFF-4BA9-96F8-697B0B203B4C}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="5" max="5" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F21" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B2:B6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
